--- a/medicine/Enfance/Stéphanie_Benson/Stéphanie_Benson.xlsx
+++ b/medicine/Enfance/Stéphanie_Benson/Stéphanie_Benson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>St%C3%A9phanie_Benson</t>
+          <t>Stéphanie_Benson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stéphanie Benson est une écrivaine franco-britannique née le 14 février 1959 à Londres d'une mère institutrice, conservatrice issue d'un milieu 
 prolétaire, et d'un père fonctionnaire, communiste, descendant de grands propriétaires terriens.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>St%C3%A9phanie_Benson</t>
+          <t>Stéphanie_Benson</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après un bac littéraire, elle intègre la Keele University pour une licence de psychologie et de russe. En 1981, elle s'installe en France près de Cahors où elle étudie le russe puis la psychologie, avant de travailler comme éducatrice.
 Stéphanie Benson en est venue à écrire en 1986, et en français : « Pour en finir vraiment avec l'Angleterre. C'était repartir à zéro, ne plus avoir de lien avec ce milieu plein de tabous et d'interdits. »
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>St%C3%A9phanie_Benson</t>
+          <t>Stéphanie_Benson</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,14 +562,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Maître des agneaux
-Maître des agneaux 1 - Les Compagnons du loup (L'Atalante coll. « Bibliothèque de l'évasion », 1998)
+          <t>Série Maître des agneaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Maître des agneaux 1 - Les Compagnons du loup (L'Atalante coll. « Bibliothèque de l'évasion », 1998)
 Maître des agneaux 2 - L'Adoration des bergers (L'Atalante coll. « Bibliothèque de l'évasion », 1998)
 Maître des agneaux 3 - La Brebis galeuse (L'Atalante coll. « Bibliothèque de l'évasion », 1998)
 Jours de pluie suivi de Fugue majeure (L'Atalante coll. « Bibliothèque de la chamaille », 2004)
-La Sirène de Misty City (Baleine, 2009).Même mechante
-Romans policiers
-Crève de plaisanterie (Éditions Baleine, coll. « Le Poulpe » Série Chéryl).
+La Sirène de Misty City (Baleine, 2009).Même mechante</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Stéphanie_Benson</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/St%C3%A9phanie_Benson</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Crève de plaisanterie (Éditions Baleine, coll. « Le Poulpe » Série Chéryl).
 Le Passage (Éditions Baleine, Macno, 1999).
 Le Dossier Lazare (coll. « Rivages/Noir », 2001)
 Un singe sur le dos (coll. « Folio policier », 2000)
@@ -566,20 +619,122 @@
 La Mort en rouge (J'ai lu Policier, 2005)
 Si sombre Liverpool (L'Atalante coll. « Bibliothèque de l'évasion », 1999)
 Le Diable en vert  (J'ai lu Policier, 2004)
-Synchronicité II - Brumes sur la Mersey (L'Atalante coll. « Insomniaques et ferroviaires », 1999)
-série Epicur (Les contrebandiers éditeurs, puis Seuil Points Policier)
-Carnivore express (2000)
+Synchronicité II - Brumes sur la Mersey (L'Atalante coll. « Insomniaques et ferroviaires », 1999)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Stéphanie_Benson</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/St%C3%A9phanie_Benson</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>série Epicur (Les contrebandiers éditeurs, puis Seuil Points Policier)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Carnivore express (2000)
 Palazzo maudit (2001)
 Biblio-quête (2001)
 Nucléaire Chaos (2002)
 Berlinale Blitz (2004)
-Tolérance Zéro (2005)
-série Al teatro (L'Atalante, coll. « Insomniaques et ferroviaires »)
-Al teatro. Cavalier seul (2001)
+Tolérance Zéro (2005)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Stéphanie_Benson</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/St%C3%A9phanie_Benson</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>série Al teatro (L'Atalante, coll. « Insomniaques et ferroviaires »)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Al teatro. Cavalier seul (2001)
 Al teatro, Tome 2 : Cheval de guerre (2003)
-Al teatro, Tome 3 : Moros (2004)
-Romans de littérature d'enfance et de jeunesse
-Une épine dans le pied (Syros coll. « Souris noire », 2011)
+Al teatro, Tome 3 : Moros (2004)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Stéphanie_Benson</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/St%C3%A9phanie_Benson</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Une épine dans le pied (Syros coll. « Souris noire », 2011)
 La Disparue de la 6e B (Syros coll. « Souris noire », 2011)
 L'Inconnue dans la maison (Syros coll. « Souris noire », 2010)
 Shooting Star (Syros coll. « Rat Noir », 2011)
@@ -590,52 +745,190 @@
 Cauchemar rail (Syros coll. « Souris noire », 2004)
 Le Cheval fantôme (Syros coll. « Souris noire », 2000)
 Les Enfants de la pleine lune (Degliame coll. « Cadran bleu », 2000)
-Trans Europa (Gallimard Jeunesse coll. « Voyage en page », 2008)
-Série Le Furet enquête
-Le Mystère de la toile d'araignée (Éditions Albin Michel, 1998)
-Haute tension (Éditions Albin Michel, 2001)
-Série Zelna &amp; co (Milan)
-Zelna contre les vampires (2000)
+Trans Europa (Gallimard Jeunesse coll. « Voyage en page », 2008)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Stéphanie_Benson</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/St%C3%A9phanie_Benson</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Série Le Furet enquête</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le Mystère de la toile d'araignée (Éditions Albin Michel, 1998)
+Haute tension (Éditions Albin Michel, 2001)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Stéphanie_Benson</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/St%C3%A9phanie_Benson</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Série Zelna &amp; co (Milan)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Zelna contre les vampires (2000)
 Les vampires contre-attaquent (2001)
-La Disparue de la 6e B (Syros coll. « Souris noire »,9 mars 2011)
-Nouvelles
-Dans le recueil Bloody Birthday : 10e anniversaire du salon du polar de Montigny-les-Cormeilles (Éditions La Branche, 2007)
+La Disparue de la 6e B (Syros coll. « Souris noire »,9 mars 2011)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Stéphanie_Benson</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/St%C3%A9phanie_Benson</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Dans le recueil Bloody Birthday : 10e anniversaire du salon du polar de Montigny-les-Cormeilles (Éditions La Branche, 2007)
 Dans le recueil Hollywood  (Eden Productions, 2000)
 Dans le recueil Du noir dans le blanc (Écailler du Sud, 2004)
 Dans le recueil La Guerre (Éditions Hydromel, 2011)
-Le Centenaire, dans le recueil Rouge Cent (Les éditions Arcane 17, 2020)
-Traductions
-Crow Killers : Tueurs de corbeaux de Scott Phillips</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>St%C3%A9phanie_Benson</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/St%C3%A9phanie_Benson</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Le Centenaire, dans le recueil Rouge Cent (Les éditions Arcane 17, 2020)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Stéphanie_Benson</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/St%C3%A9phanie_Benson</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Crow Killers : Tueurs de corbeaux de Scott Phillips</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Stéphanie_Benson</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/St%C3%A9phanie_Benson</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix Michel-Lebrun de la Ville du Mans 1997 pour Le loup dans la lune bleue[1]</t>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Prix Michel-Lebrun de la Ville du Mans 1997 pour Le loup dans la lune bleue</t>
         </is>
       </c>
     </row>
